--- a/AllInOneSource.xlsx
+++ b/AllInOneSource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Documents\Projects\20200102#CVManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB7EA68-CA17-4C9E-9E9A-76F5852DA1B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D496C3D4-B51C-4D50-ACD3-D28505AFD6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,6 @@
     <t>Lang</t>
   </si>
   <si>
-    <t>Powerful Problem Solver and Explorer, Programming Geek.</t>
-  </si>
-  <si>
-    <t>具有强大的解决问题能力和管理能力，编程极客。</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -106,12 +100,6 @@
     <t>Sep 2015 – Jul 2019</t>
   </si>
   <si>
-    <t>National University of Singapore (NUS)</t>
-  </si>
-  <si>
-    <t>新加坡国立大学</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -482,6 +470,22 @@
   </si>
   <si>
     <t>XXX  Association</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简介概要1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简介概要2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -909,7 +913,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,39 +928,40 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -972,24 +977,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1000,10 +1005,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1014,10 +1019,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1037,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1048,187 +1053,187 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1250,16 +1255,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1267,36 +1272,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1321,137 +1326,137 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1476,134 +1481,134 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
         <v>102</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>103</v>
       </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" t="s">
-        <v>107</v>
-      </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>104</v>
       </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1625,13 +1630,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1639,30 +1644,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1690,89 +1695,89 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1797,19 +1802,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1817,42 +1822,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1873,50 +1878,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/AllInOneSource.xlsx
+++ b/AllInOneSource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Documents\Projects\20200102#CVManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D496C3D4-B51C-4D50-ACD3-D28505AFD6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB6CA55-4DE1-4109-9C3E-74B9AF0E30C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="135">
   <si>
     <t>Sentence</t>
   </si>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -486,6 +482,10 @@
   </si>
   <si>
     <t>Summary 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS;AI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +928,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1042,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1085,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1097,13 +1097,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1111,25 +1111,25 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1137,25 +1137,25 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1163,7 +1163,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1175,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1189,25 +1189,25 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
         <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1215,7 +1215,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1227,13 +1227,13 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1289,16 +1289,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1312,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -1385,13 +1385,13 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -1406,7 +1406,7 @@
         <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
@@ -1417,28 +1417,28 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -1450,12 +1450,100 @@
         <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
       </c>
       <c r="N3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1471,7 +1559,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1528,7 +1616,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1540,19 +1628,19 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
         <v>98</v>
       </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
       <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>102</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -1561,7 +1649,7 @@
         <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
@@ -1572,28 +1660,28 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
         <v>104</v>
-      </c>
-      <c r="I3" t="s">
-        <v>105</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -1602,10 +1690,10 @@
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N3" t="s">
         <v>74</v>
@@ -1644,10 +1732,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -1658,10 +1746,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -1681,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1724,13 +1812,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -1742,24 +1830,24 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
@@ -1771,10 +1859,10 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
         <v>74</v>
@@ -1791,7 +1879,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1822,7 +1910,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -1831,7 +1919,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1842,7 +1930,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -1851,7 +1939,7 @@
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1871,7 +1959,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1910,7 +1998,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -1918,7 +2006,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
